--- a/biology/Médecine/Jean-Marie_Nicolas_Fréteau/Jean-Marie_Nicolas_Fréteau.xlsx
+++ b/biology/Médecine/Jean-Marie_Nicolas_Fréteau/Jean-Marie_Nicolas_Fréteau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Marie_Nicolas_Fr%C3%A9teau</t>
+          <t>Jean-Marie_Nicolas_Fréteau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Marie Nicolas Fréteau de La Thiaudière est un médecin français né le 13 mars 1767 à Messac et mort le 9 mars 1823 à Nantes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Marie_Nicolas_Fr%C3%A9teau</t>
+          <t>Jean-Marie_Nicolas_Fréteau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une famille de Lavau-sur-Loire, Jean-Marie Nicolas Fréteau est le fils de Jean Fréteau (Frétaud), avocat au parlement de Bretagne, procureur fiscal du marquisat de Bain et de La Marzellière, et de Marguerite Françoise Levieil. Marié avec Marie Ursule Bourdier, il est le beau-père du colonel Juan Crisóstomo Thiebaut (es).
 Après ses études à Paris, reçu docteur en médecine, il s'établit à Nantes comme chirurgie et médecine, où il se fait une réputation pour la cure des plaies invétérées et dans l'art des accouchements. Il se consacre également à l'étude les moyens propres à corriger les difformités du corps.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Marie_Nicolas_Fr%C3%A9teau</t>
+          <t>Jean-Marie_Nicolas_Fréteau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mémoire sur les moyens de guérir facilement et sans danger les vieux ulcères des jambes, même chez les vieillards, Paris, 1805
 Considérations pratiques sur le traitement de la gonorrhée virulente, etc., 1813, in-8
